--- a/addSanPham.xlsx
+++ b/addSanPham.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -453,7 +453,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,7 +509,7 @@
         <v>11</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -525,11 +525,14 @@
       <c r="D3">
         <v>17890000</v>
       </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
       <c r="F3" t="s">
         <v>22</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -545,11 +548,14 @@
       <c r="D4">
         <v>10990000</v>
       </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
       <c r="F4" t="s">
         <v>15</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -565,11 +571,14 @@
       <c r="D5">
         <v>28499000</v>
       </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
       <c r="F5" t="s">
         <v>25</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -585,11 +594,14 @@
       <c r="D6">
         <v>25990000</v>
       </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
       <c r="F6" t="s">
         <v>29</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -605,11 +617,14 @@
       <c r="D7">
         <v>49720000</v>
       </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
       <c r="F7" t="s">
         <v>27</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -625,11 +640,14 @@
       <c r="D8">
         <v>20680000</v>
       </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
       <c r="F8" t="s">
         <v>31</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -645,11 +663,14 @@
       <c r="D9">
         <v>23900000</v>
       </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
       <c r="F9" t="s">
         <v>33</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -665,11 +686,14 @@
       <c r="D10">
         <v>34990000</v>
       </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
       <c r="F10" t="s">
         <v>20</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -685,11 +709,14 @@
       <c r="D11">
         <v>8490000</v>
       </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
       <c r="F11" t="s">
         <v>24</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="5:6" x14ac:dyDescent="0.25">

--- a/addSanPham.xlsx
+++ b/addSanPham.xlsx
@@ -453,7 +453,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,6 +464,7 @@
     <col min="4" max="4" width="12.85546875" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
     <col min="6" max="6" width="50.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -509,7 +510,7 @@
         <v>11</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -532,7 +533,7 @@
         <v>22</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -624,7 +625,7 @@
         <v>27</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -670,7 +671,7 @@
         <v>33</v>
       </c>
       <c r="G9">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
